--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78059F58-416E-486D-9C26-CC781AC708E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC81BBE-FB20-4476-B0BD-652E055E1490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="creds" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>SN</t>
   </si>
@@ -46,27 +47,6 @@
     <t>game_features</t>
   </si>
   <si>
-    <t>static_folder_path</t>
-  </si>
-  <si>
-    <t>Doll Dress Up</t>
-  </si>
-  <si>
-    <t>Limbs Run</t>
-  </si>
-  <si>
-    <t>Fleet Manager</t>
-  </si>
-  <si>
-    <t>IronThemAll</t>
-  </si>
-  <si>
-    <t>Shot Range Run</t>
-  </si>
-  <si>
-    <t>Screw Master</t>
-  </si>
-  <si>
     <t>Games</t>
   </si>
   <si>
@@ -148,30 +128,103 @@
     <t>Multiplayer</t>
   </si>
   <si>
-    <t>C:\Users\Anon\Downloads\Compressed\Games\Games\Doll Dress Up</t>
-  </si>
-  <si>
-    <t>C:\Users\Anon\Downloads\Compressed\Games\Games\Limbs Run</t>
-  </si>
-  <si>
-    <t>C:\Users\Anon\Downloads\Compressed\Games\Games\Fleet Manager</t>
-  </si>
-  <si>
-    <t>C:\Users\Anon\Downloads\Compressed\Games\Games\IronThemAll</t>
-  </si>
-  <si>
-    <t>C:\Users\Anon\Downloads\Compressed\Games\Games\Shot Range Run</t>
-  </si>
-  <si>
-    <t>C:\Users\Anon\Downloads\Compressed\Games\Games\Screw Master</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TOTP</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>amit1</t>
+  </si>
+  <si>
+    <t>amit2</t>
+  </si>
+  <si>
+    <t>amit3</t>
+  </si>
+  <si>
+    <t>google_play_apk_url</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.sec.android.app.popupcalculator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.sec.android.app.clockpackage</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.samsung.android.app.notes</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=notes.notepad.checklist.calendar.todolist.notebook</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.atomczak.notepat</t>
+  </si>
+  <si>
+    <t>pop calculator</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>todo notes</t>
+  </si>
+  <si>
+    <t>notepad</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>RUL36UYIL2KGMWFPM33YQ4VDQZIAODr3rr32r746724672374</t>
+  </si>
+  <si>
+    <t>dummy_email_1@gmail.com</t>
+  </si>
+  <si>
+    <t>dummy_email_2@gmail.com</t>
+  </si>
+  <si>
+    <t>dummy_email_3@gmail.com</t>
+  </si>
+  <si>
+    <t>dummy_email_4@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -196,13 +249,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,198 +551,206 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2A06C39C-76A1-479F-85EE-DCC4C27406A8}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F8DF85AD-7D3A-4C5D-9BEE-60EF01886101}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{132E3554-804F-44C1-9FC2-BDC1A61A28BE}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{BB9F7EB3-3018-4C1A-8C74-583509AF540F}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{94243452-45D1-433B-939D-5742039EDD6A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B392DB25-7F51-4FA3-9C2A-4204FF547DE8}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C50</xm:sqref>
+          <xm:sqref>C3:C49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05D6A7B2-4F56-43F2-8260-CBA956C08F2A}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D842</xm:sqref>
+          <xm:sqref>D3:D841</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07201D7E-F1E6-4E75-B6A7-C72EC2AD47ED}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E881</xm:sqref>
+          <xm:sqref>E3:E880</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{896A9EE7-C422-41B1-8E9C-C087C196AEAA}">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F582</xm:sqref>
+          <xm:sqref>F3:F581</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F4737B8-35A0-4A26-B8FC-32FD9AA8A264}">
+          <x14:formula1>
+            <xm:f>creds!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -694,6 +759,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{3F1166E3-E503-472B-8316-3FC162797BAF}">
+      <formula1>COUNTIF($B:$B,B2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{B98B9D7B-72F7-46AC-A01E-09F9DA563391}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{636B45AD-AF9E-42E3-A88A-20287D460AA8}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{4B98F808-FA82-4ABE-8E58-F45BF3A38073}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{8E004C73-7C86-4FBE-AB08-C6ED95D70421}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B034318-E67E-47CB-9529-5F548AEC2415}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -705,10 +886,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -719,116 +900,116 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC81BBE-FB20-4476-B0BD-652E055E1490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C73016-642E-41A8-8627-76F2C4A27470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>SN</t>
   </si>
   <si>
-    <t>app_name</t>
-  </si>
-  <si>
     <t>app_category</t>
   </si>
   <si>
@@ -168,21 +165,6 @@
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.atomczak.notepat</t>
-  </si>
-  <si>
-    <t>pop calculator</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>todo notes</t>
-  </si>
-  <si>
-    <t>notepad</t>
   </si>
   <si>
     <t>password123</t>
@@ -538,23 +520,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,152 +552,134 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{2A06C39C-76A1-479F-85EE-DCC4C27406A8}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{F8DF85AD-7D3A-4C5D-9BEE-60EF01886101}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{132E3554-804F-44C1-9FC2-BDC1A61A28BE}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{BB9F7EB3-3018-4C1A-8C74-583509AF540F}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{94243452-45D1-433B-939D-5742039EDD6A}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2A06C39C-76A1-479F-85EE-DCC4C27406A8}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{F8DF85AD-7D3A-4C5D-9BEE-60EF01886101}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{132E3554-804F-44C1-9FC2-BDC1A61A28BE}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{BB9F7EB3-3018-4C1A-8C74-583509AF540F}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{94243452-45D1-433B-939D-5742039EDD6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -726,31 +689,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C49</xm:sqref>
+          <xm:sqref>B3:B49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05D6A7B2-4F56-43F2-8260-CBA956C08F2A}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D841</xm:sqref>
+          <xm:sqref>C3:C841</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07201D7E-F1E6-4E75-B6A7-C72EC2AD47ED}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E880</xm:sqref>
+          <xm:sqref>D3:D880</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{896A9EE7-C422-41B1-8E9C-C087C196AEAA}">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F581</xm:sqref>
+          <xm:sqref>E3:E581</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F4737B8-35A0-4A26-B8FC-32FD9AA8A264}">
           <x14:formula1>
             <xm:f>creds!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -762,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -812,16 +775,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -829,16 +792,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -846,16 +809,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -886,130 +849,130 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C73016-642E-41A8-8627-76F2C4A27470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80670856-B8D7-43DC-BDD9-0C1B86106C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="creds" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>SN</t>
   </si>
@@ -44,21 +44,177 @@
     <t>game_features</t>
   </si>
   <si>
+    <t>google_play_apk_url</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>Games</t>
   </si>
   <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.stickman.warriors.stickwarriors.dragon.shadow.fight</t>
+  </si>
+  <si>
+    <t>account1</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.avatarlife.avatarstory.mystory.myworld.mywonder</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.colorpainting.colorbook.colorasmr.coloring.drawpainting.colorpage</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.diygame.dolldressup.dressup.makeup.anime.princess</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.riddlephysics.trickypuzzle.brainpuzzle.braintest</t>
+  </si>
+  <si>
+    <t>Role Playing</t>
+  </si>
+  <si>
+    <t>account2</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>account3</t>
+  </si>
+  <si>
+    <t>account4</t>
+  </si>
+  <si>
+    <t>account5</t>
+  </si>
+  <si>
+    <t>account6</t>
+  </si>
+  <si>
+    <t>account7</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>account8</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TOTP</t>
+  </si>
+  <si>
+    <t>emilepunchfix@outlook.com</t>
+  </si>
+  <si>
+    <t>RSXGFC357G</t>
+  </si>
+  <si>
+    <t>JYNNZGBTM5A2XLGOCVB3VEPLA3OP3APEQ2HGIEGD4EYXGNL3LAVA</t>
+  </si>
+  <si>
+    <t>Hereticgames02@outlook.fr</t>
+  </si>
+  <si>
+    <t>YRSXFC364R</t>
+  </si>
+  <si>
+    <t>ZI7W4GMIIHKJBE7G4PWGZJADLW76AC5YNYLDHBZ55BHOZ6SLFZWA</t>
+  </si>
+  <si>
+    <t>storinteractive@outlook.fr</t>
+  </si>
+  <si>
+    <t>RXFGC4XXX</t>
+  </si>
+  <si>
+    <t>XXDN7KIGSG4NE6NEHCFVREKHHGXSCJE2F7SRRLDJB6MUNI6VBG6A</t>
+  </si>
+  <si>
+    <t>Stardomainstudios09@outlook.com</t>
+  </si>
+  <si>
+    <t>YTDC587HVJ</t>
+  </si>
+  <si>
+    <t>LC3DRXNFAPVLHCHM6AVXE5B33XGSVYDG2KNNPMT5N4SA7EA3WJUA</t>
+  </si>
+  <si>
+    <t>breeinskifreegames@gmail.com</t>
+  </si>
+  <si>
+    <t>vjg7548vjy</t>
+  </si>
+  <si>
+    <t>6Q7RHMZH4O67XV3NPG4GIM5SZ7CYH4WA3ABY6LU6ECCOFYAQI4JA</t>
+  </si>
+  <si>
+    <t>ArnouDastous@outlook.com</t>
+  </si>
+  <si>
+    <t>AD5Y677GU7T65</t>
+  </si>
+  <si>
+    <t>YVBRT2M26TNBHOT5J3EC23EAWB2LRTW6UQM37BMQ6GXNMPBO4ZIA</t>
+  </si>
+  <si>
+    <t>WyattLampron67@outlook.com</t>
+  </si>
+  <si>
+    <t>WL8776546TJGTY</t>
+  </si>
+  <si>
+    <t>ID6VNGODUSRTDYDSFUBI65VSCAB77MYFI3GTCCUITKKALKBB5STQ</t>
+  </si>
+  <si>
+    <t>NouelGuedry@outlook.com</t>
+  </si>
+  <si>
+    <t>NG5TY5864EDU4</t>
+  </si>
+  <si>
+    <t>67PBEYIUXBHWFYXQZKU7K6LWPMLW7WZ7BCWXRRYZISPU3IKS3ULA</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Arcade</t>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Live Wallpaper</t>
   </si>
   <si>
     <t>Board</t>
   </si>
   <si>
+    <t>Widget</t>
+  </si>
+  <si>
     <t>Brain &amp; Puzzle</t>
   </si>
   <si>
@@ -80,15 +236,9 @@
     <t>Racing</t>
   </si>
   <si>
-    <t>Role Playing</t>
-  </si>
-  <si>
     <t>Seek &amp; Find</t>
   </si>
   <si>
-    <t>Simulation</t>
-  </si>
-  <si>
     <t>Sports Games</t>
   </si>
   <si>
@@ -101,106 +251,38 @@
     <t>Words</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Live Wallpaper</t>
-  </si>
-  <si>
-    <t>Widget</t>
-  </si>
-  <si>
-    <t>Multiplayer</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>TOTP</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>amit</t>
-  </si>
-  <si>
-    <t>amit1</t>
-  </si>
-  <si>
-    <t>amit2</t>
-  </si>
-  <si>
-    <t>amit3</t>
-  </si>
-  <si>
-    <t>google_play_apk_url</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.sec.android.app.popupcalculator</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.sec.android.app.clockpackage</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.samsung.android.app.notes</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=notes.notepad.checklist.calendar.todolist.notebook</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.atomczak.notepat</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>RUL36UYIL2KGMWFPM33YQ4VDQZIAODr3rr32r746724672374</t>
-  </si>
-  <si>
-    <t>dummy_email_1@gmail.com</t>
-  </si>
-  <si>
-    <t>dummy_email_2@gmail.com</t>
-  </si>
-  <si>
-    <t>dummy_email_3@gmail.com</t>
-  </si>
-  <si>
-    <t>dummy_email_4@gmail.com</t>
+    <t>package_name</t>
+  </si>
+  <si>
+    <t>com.test.amit1</t>
+  </si>
+  <si>
+    <t>com.test.amit3</t>
+  </si>
+  <si>
+    <t>com.test.amit4</t>
+  </si>
+  <si>
+    <t>com.test.amit5</t>
+  </si>
+  <si>
+    <t>com.test.amit6</t>
+  </si>
+  <si>
+    <t>base_apkname</t>
+  </si>
+  <si>
+    <t>test.apk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,16 +295,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,18 +344,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,188 +682,201 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="101.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{2A06C39C-76A1-479F-85EE-DCC4C27406A8}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{F8DF85AD-7D3A-4C5D-9BEE-60EF01886101}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{132E3554-804F-44C1-9FC2-BDC1A61A28BE}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{BB9F7EB3-3018-4C1A-8C74-583509AF540F}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{94243452-45D1-433B-939D-5742039EDD6A}"/>
-  </hyperlinks>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{3B2DE811-CC67-40CD-97B5-47F45BF137FB}">
+      <formula1>COUNTIF($B:$B,I2)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B392DB25-7F51-4FA3-9C2A-4204FF547DE8}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05D6A7B2-4F56-43F2-8260-CBA956C08F2A}">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C841</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07201D7E-F1E6-4E75-B6A7-C72EC2AD47ED}">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D880</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{896A9EE7-C422-41B1-8E9C-C087C196AEAA}">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E581</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F4737B8-35A0-4A26-B8FC-32FD9AA8A264}">
           <x14:formula1>
             <xm:f>creds!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>I7:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -723,102 +886,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -827,12 +1059,6 @@
       <formula1>COUNTIF($B:$B,B2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{B98B9D7B-72F7-46AC-A01E-09F9DA563391}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{636B45AD-AF9E-42E3-A88A-20287D460AA8}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{4B98F808-FA82-4ABE-8E58-F45BF3A38073}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{8E004C73-7C86-4FBE-AB08-C6ED95D70421}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -842,17 +1068,17 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -863,116 +1089,116 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>16</v>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>18</v>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>21</v>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>22</v>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80670856-B8D7-43DC-BDD9-0C1B86106C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74C482-F46E-45C0-A75C-94778114BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>SN</t>
   </si>
@@ -119,78 +119,6 @@
     <t>TOTP</t>
   </si>
   <si>
-    <t>emilepunchfix@outlook.com</t>
-  </si>
-  <si>
-    <t>RSXGFC357G</t>
-  </si>
-  <si>
-    <t>JYNNZGBTM5A2XLGOCVB3VEPLA3OP3APEQ2HGIEGD4EYXGNL3LAVA</t>
-  </si>
-  <si>
-    <t>Hereticgames02@outlook.fr</t>
-  </si>
-  <si>
-    <t>YRSXFC364R</t>
-  </si>
-  <si>
-    <t>ZI7W4GMIIHKJBE7G4PWGZJADLW76AC5YNYLDHBZ55BHOZ6SLFZWA</t>
-  </si>
-  <si>
-    <t>storinteractive@outlook.fr</t>
-  </si>
-  <si>
-    <t>RXFGC4XXX</t>
-  </si>
-  <si>
-    <t>XXDN7KIGSG4NE6NEHCFVREKHHGXSCJE2F7SRRLDJB6MUNI6VBG6A</t>
-  </si>
-  <si>
-    <t>Stardomainstudios09@outlook.com</t>
-  </si>
-  <si>
-    <t>YTDC587HVJ</t>
-  </si>
-  <si>
-    <t>LC3DRXNFAPVLHCHM6AVXE5B33XGSVYDG2KNNPMT5N4SA7EA3WJUA</t>
-  </si>
-  <si>
-    <t>breeinskifreegames@gmail.com</t>
-  </si>
-  <si>
-    <t>vjg7548vjy</t>
-  </si>
-  <si>
-    <t>6Q7RHMZH4O67XV3NPG4GIM5SZ7CYH4WA3ABY6LU6ECCOFYAQI4JA</t>
-  </si>
-  <si>
-    <t>ArnouDastous@outlook.com</t>
-  </si>
-  <si>
-    <t>AD5Y677GU7T65</t>
-  </si>
-  <si>
-    <t>YVBRT2M26TNBHOT5J3EC23EAWB2LRTW6UQM37BMQ6GXNMPBO4ZIA</t>
-  </si>
-  <si>
-    <t>WyattLampron67@outlook.com</t>
-  </si>
-  <si>
-    <t>WL8776546TJGTY</t>
-  </si>
-  <si>
-    <t>ID6VNGODUSRTDYDSFUBI65VSCAB77MYFI3GTCCUITKKALKBB5STQ</t>
-  </si>
-  <si>
-    <t>NouelGuedry@outlook.com</t>
-  </si>
-  <si>
-    <t>NG5TY5864EDU4</t>
-  </si>
-  <si>
-    <t>67PBEYIUXBHWFYXQZKU7K6LWPMLW7WZ7BCWXRRYZISPU3IKS3ULA</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -273,6 +201,12 @@
   </si>
   <si>
     <t>test.apk</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -377,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -387,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -672,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -707,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -736,10 +673,10 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -765,10 +702,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -794,10 +731,10 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -823,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -852,10 +789,10 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -888,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,14 +861,14 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1234</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,14 +878,14 @@
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,14 +895,14 @@
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,14 +912,14 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,14 +929,14 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
+      <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1009,14 +946,14 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>47</v>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1026,14 +963,14 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>50</v>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1043,14 +980,14 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1234</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1059,6 +996,10 @@
       <formula1>COUNTIF($B:$B,B2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1C43488D-080F-4B02-941B-A19ED10955DF}"/>
+    <hyperlink ref="C3:C9" r:id="rId2" display="test1@gmail.com" xr:uid="{DA73B2EA-8B38-4CB5-B8A6-6D79D0F3B2F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1075,10 +1016,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1092,13 +1033,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1109,7 +1050,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,20 +1058,20 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1138,32 +1079,32 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,7 +1114,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,22 +1124,22 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D74C482-F46E-45C0-A75C-94778114BE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CDD92A-B476-405A-9448-7AA3E4B14C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>SN</t>
   </si>
@@ -47,6 +47,12 @@
     <t>google_play_apk_url</t>
   </si>
   <si>
+    <t>package_name</t>
+  </si>
+  <si>
+    <t>base_apkname</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -62,111 +68,114 @@
     <t>Multiplayer</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.stickman.warriors.stickwarriors.dragon.shadow.fight</t>
+    <t>https://play.google.com/store/apps/details?id=com.hotyetistudio.eggsortpuzzle</t>
+  </si>
+  <si>
+    <t>com.maridilo.fosixgame1</t>
+  </si>
+  <si>
+    <t>emt.apk</t>
   </si>
   <si>
     <t>account1</t>
   </si>
   <si>
-    <t>https://play.google.com/store/apps/details?id=com.avatarlife.avatarstory.mystory.myworld.mywonder</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.colorpainting.colorbook.colorasmr.coloring.drawpainting.colorpage</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.diygame.dolldressup.dressup.makeup.anime.princess</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.riddlephysics.trickypuzzle.brainpuzzle.braintest</t>
+    <t>https://play.google.com/store/apps/details?id=com.hotyetistudio.colorwario</t>
+  </si>
+  <si>
+    <t>com.maridilo.fosixgame2</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hotyetistudio.sortadventure</t>
+  </si>
+  <si>
+    <t>com.maridilo.fosixgame3</t>
+  </si>
+  <si>
+    <t>com.maridilo.fosixgame4</t>
+  </si>
+  <si>
+    <t>account2</t>
+  </si>
+  <si>
+    <t>account3</t>
+  </si>
+  <si>
+    <t>account4</t>
+  </si>
+  <si>
+    <t>account5</t>
+  </si>
+  <si>
+    <t>account6</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TOTP</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Live Wallpaper</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>Brain &amp; Puzzle</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Music &amp; Rhythm</t>
+  </si>
+  <si>
+    <t>Racing</t>
   </si>
   <si>
     <t>Role Playing</t>
   </si>
   <si>
-    <t>account2</t>
+    <t>Seek &amp; Find</t>
   </si>
   <si>
     <t>Simulation</t>
   </si>
   <si>
-    <t>account3</t>
-  </si>
-  <si>
-    <t>account4</t>
-  </si>
-  <si>
-    <t>account5</t>
-  </si>
-  <si>
-    <t>account6</t>
-  </si>
-  <si>
-    <t>account7</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>account8</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>TOTP</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Live Wallpaper</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Widget</t>
-  </si>
-  <si>
-    <t>Brain &amp; Puzzle</t>
-  </si>
-  <si>
-    <t>Cards</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t>Music &amp; Rhythm</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Seek &amp; Find</t>
-  </si>
-  <si>
     <t>Sports Games</t>
   </si>
   <si>
@@ -179,41 +188,32 @@
     <t>Words</t>
   </si>
   <si>
-    <t>package_name</t>
-  </si>
-  <si>
-    <t>com.test.amit1</t>
-  </si>
-  <si>
-    <t>com.test.amit3</t>
-  </si>
-  <si>
-    <t>com.test.amit4</t>
-  </si>
-  <si>
-    <t>com.test.amit5</t>
-  </si>
-  <si>
-    <t>com.test.amit6</t>
-  </si>
-  <si>
-    <t>base_apkname</t>
-  </si>
-  <si>
-    <t>test.apk</t>
+    <t>test@gmail.com</t>
   </si>
   <si>
     <t>test1@gmail.com</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>test3@outlook.com</t>
+  </si>
+  <si>
+    <t>test4@yahoo.com</t>
+  </si>
+  <si>
+    <t>test7@gmail.com</t>
+  </si>
+  <si>
+    <t>tes1@gmail.com</t>
+  </si>
+  <si>
+    <t>gfhsieyytytyytyt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,22 +255,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,12 +305,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -320,10 +349,15 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -607,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,42 +678,42 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -687,28 +721,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -716,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -745,66 +779,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{3B2DE811-CC67-40CD-97B5-47F45BF137FB}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{3B2DE811-CC67-40CD-97B5-47F45BF137FB}">
       <formula1>COUNTIF($B:$B,I2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8241A8F2-EAE3-41BB-A953-82335CDD3BCC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -813,7 +821,7 @@
           <x14:formula1>
             <xm:f>creds!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>I7:I1048576</xm:sqref>
+          <xm:sqref>I6:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -823,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>27</v>
@@ -859,134 +867,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D7" s="7">
         <v>1234</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -997,8 +971,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1C43488D-080F-4B02-941B-A19ED10955DF}"/>
-    <hyperlink ref="C3:C9" r:id="rId2" display="test1@gmail.com" xr:uid="{DA73B2EA-8B38-4CB5-B8A6-6D79D0F3B2F1}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{382B9779-7BFA-4463-8F88-A286A1BEBE2F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6DCA3372-9F70-4103-93A6-345B44C0F83F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{04E03B50-8CCD-45C1-BE10-42FF62D56EED}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{91D8C2B5-C110-45C4-B765-5821D86F20F8}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B48FB2C0-7554-46A8-B83A-D98591F1D76F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{72D54A9B-AD69-4E15-9634-6028EECEB548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1030,13 +1008,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1044,102 +1022,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CDD92A-B476-405A-9448-7AA3E4B14C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E1110-566B-4138-A93C-25ABA762579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="-14745" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>SN</t>
   </si>
@@ -50,170 +50,119 @@
     <t>package_name</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>account1</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.tocaboca.tocalifeworld</t>
+  </si>
+  <si>
+    <t>com.asdevmat.croc4</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TOTP</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Live Wallpaper</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>Brain &amp; Puzzle</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Music &amp; Rhythm</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Role Playing</t>
+  </si>
+  <si>
+    <t>Seek &amp; Find</t>
+  </si>
+  <si>
+    <t>Sports Games</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Trivia</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
     <t>base_apkname</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Multiplayer</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.hotyetistudio.eggsortpuzzle</t>
-  </si>
-  <si>
-    <t>com.maridilo.fosixgame1</t>
-  </si>
-  <si>
     <t>emt.apk</t>
-  </si>
-  <si>
-    <t>account1</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.hotyetistudio.colorwario</t>
-  </si>
-  <si>
-    <t>com.maridilo.fosixgame2</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.hotyetistudio.sortadventure</t>
-  </si>
-  <si>
-    <t>com.maridilo.fosixgame3</t>
-  </si>
-  <si>
-    <t>com.maridilo.fosixgame4</t>
-  </si>
-  <si>
-    <t>account2</t>
-  </si>
-  <si>
-    <t>account3</t>
-  </si>
-  <si>
-    <t>account4</t>
-  </si>
-  <si>
-    <t>account5</t>
-  </si>
-  <si>
-    <t>account6</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>TOTP</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Live Wallpaper</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Widget</t>
-  </si>
-  <si>
-    <t>Brain &amp; Puzzle</t>
-  </si>
-  <si>
-    <t>Cards</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t>Music &amp; Rhythm</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Role Playing</t>
-  </si>
-  <si>
-    <t>Seek &amp; Find</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Sports Games</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Trivia</t>
-  </si>
-  <si>
-    <t>Words</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
-    <t>test3@outlook.com</t>
-  </si>
-  <si>
-    <t>test4@yahoo.com</t>
-  </si>
-  <si>
-    <t>test7@gmail.com</t>
-  </si>
-  <si>
-    <t>tes1@gmail.com</t>
-  </si>
-  <si>
-    <t>gfhsieyytytyytyt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,11 +204,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -305,42 +249,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -349,15 +263,7 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -641,19 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="101.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.44140625" customWidth="1"/>
     <col min="7" max="8" width="24.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -681,160 +588,59 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{3B2DE811-CC67-40CD-97B5-47F45BF137FB}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{0EC52FDE-9681-496C-9986-9C1B19731AE6}">
       <formula1>COUNTIF($B:$B,I2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{8241A8F2-EAE3-41BB-A953-82335CDD3BCC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F4737B8-35A0-4A26-B8FC-32FD9AA8A264}">
-          <x14:formula1>
-            <xm:f>creds!$B$2:$B$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>I6:I1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,119 +656,157 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1234</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -970,14 +814,6 @@
       <formula1>COUNTIF($B:$B,B2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{382B9779-7BFA-4463-8F88-A286A1BEBE2F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6DCA3372-9F70-4103-93A6-345B44C0F83F}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{04E03B50-8CCD-45C1-BE10-42FF62D56EED}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{91D8C2B5-C110-45C4-B765-5821D86F20F8}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{B48FB2C0-7554-46A8-B83A-D98591F1D76F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{72D54A9B-AD69-4E15-9634-6028EECEB548}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -994,10 +830,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1008,116 +844,116 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anon\PycharmProjects\aws_appstore_automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E1110-566B-4138-A93C-25ABA762579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D7F1D-751B-4EC2-B894-18982E035F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="-14745" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>SN</t>
   </si>
@@ -50,96 +50,129 @@
     <t>package_name</t>
   </si>
   <si>
+    <t>base_apkname</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
     <t>Games</t>
   </si>
   <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.sprunkihorrormod.sprunkidandyhorrorsongoc</t>
+  </si>
+  <si>
+    <t>com.gamoos.sprunkino.musicmaze</t>
+  </si>
+  <si>
+    <t>Incredible.apk</t>
+  </si>
+  <si>
+    <t>account1</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TOTP</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>bot games</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.cdx.mutilate.playground</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Live Wallpaper</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ezt.ragdoll.dismount</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.people.box.mel</t>
+  </si>
+  <si>
+    <t>Brain &amp; Puzzle</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.spooky.chorus</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.sprunki.music.box</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.sprunki.race</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.MBRKCORP.ArenaSandboxPLayground</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.pineapple.craft.ragdoll.playground</t>
+  </si>
+  <si>
+    <t>Music &amp; Rhythm</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Role Playing</t>
+  </si>
+  <si>
+    <t>Seek &amp; Find</t>
+  </si>
+  <si>
     <t>Simulation</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Multiplayer</t>
-  </si>
-  <si>
-    <t>account1</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=com.tocaboca.tocalifeworld</t>
-  </si>
-  <si>
-    <t>com.asdevmat.croc4</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>TOTP</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Casual</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>Live Wallpaper</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Widget</t>
-  </si>
-  <si>
-    <t>Brain &amp; Puzzle</t>
-  </si>
-  <si>
-    <t>Cards</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t>Music &amp; Rhythm</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Role Playing</t>
-  </si>
-  <si>
-    <t>Seek &amp; Find</t>
-  </si>
-  <si>
     <t>Sports Games</t>
   </si>
   <si>
@@ -152,10 +185,70 @@
     <t>Words</t>
   </si>
   <si>
-    <t>base_apkname</t>
-  </si>
-  <si>
-    <t>emt.apk</t>
+    <t>https://play.google.com/store/apps/details?id=com.shockwavegames.thief.criminal.escape</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.shockwavegames.car.dealer.job.simulator</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jlgames.left.right.fashion.dressup.games</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jlgames.stickman.thief.puzzle.brain.games</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jlgames.ragdoll.destroy.smash.bones.relaxing.games</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.jlgames.color.asmr.page.art.painting.book.coloring.game</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ElpisStudio.anime.high.school.love.story2</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ElpisStudio.pregnant.mom.virtual.families</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ElpisStudio.AnimeGirlHighSchoolStory</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ElpisStudio.DeerHuterGameGunGames</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ElpisStudio.CarParkingGameParkingJam</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.chi.JapnTaxi</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.chi.JapanPost</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.chi.WorldParking</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.chi.OpenWordTaxi</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.chi.Mafia1930</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.lca.foss.ball.game</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.legendary.farm.animal.sim</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.lca.car.thief.simulator.game</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.legendary.car.crash.stunts.accidents</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.legendary.billionaire.car.dealer.simulator.test</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -179,12 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -204,6 +291,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -249,21 +341,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -547,266 +692,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.44140625" customWidth="1"/>
-    <col min="7" max="8" width="24.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{0EC52FDE-9681-496C-9986-9C1B19731AE6}">
-      <formula1>COUNTIF($B:$B,I2)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{0E36BCDD-5613-4EE0-80B3-4D1E35A2C883}">
+      <formula1>COUNTIF($B:$B,J2)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{BEBDDF9C-D746-442B-B897-5887B66B19CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135A3C7-7A62-4DC4-B294-3465A85C2CC2}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="69.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -820,20 +856,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B034318-E67E-47CB-9529-5F548AEC2415}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N6" activeCellId="2" sqref="N4 N5 N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -842,121 +881,469 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J19" r:id="rId1" xr:uid="{34976E00-FB08-47C4-A64A-749A2586B0B5}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{645C57B2-8E6A-4E4C-B467-6C2829EA263F}"/>
+    <hyperlink ref="J21" r:id="rId3" xr:uid="{A3179136-074B-4D8C-8839-F197B8326763}"/>
+    <hyperlink ref="J22" r:id="rId4" xr:uid="{46AC8DDE-82D5-45F1-8AAD-DC4832C59A84}"/>
+    <hyperlink ref="J23" r:id="rId5" xr:uid="{BA05642A-B7AC-4BE9-934F-7F1A2C7874A0}"/>
+    <hyperlink ref="J24" r:id="rId6" xr:uid="{DAAC665B-EB9F-46EB-A7C2-252650E53281}"/>
+    <hyperlink ref="J25" r:id="rId7" xr:uid="{BF223888-A6C7-45C6-A274-2D09B96999C2}"/>
+    <hyperlink ref="J26" r:id="rId8" xr:uid="{3CB355CB-A88C-4E3B-A4B7-D9A6B9191699}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{B3600307-5CF9-4841-95A3-68130E4C573B}"/>
+    <hyperlink ref="J28" r:id="rId10" xr:uid="{E88829D6-1D8C-44D5-A1D1-B7E625465969}"/>
+    <hyperlink ref="J29" r:id="rId11" xr:uid="{006B6A5E-83BB-401A-8F00-54F2A02DD540}"/>
+    <hyperlink ref="J30" r:id="rId12" xr:uid="{5BAD24AE-843A-4DF9-8D3A-BA7191D1800D}"/>
+    <hyperlink ref="J31" r:id="rId13" xr:uid="{BCF599DD-3FE0-4B23-8181-F7739EA30C88}"/>
+    <hyperlink ref="J32" r:id="rId14" xr:uid="{2588A002-12B2-48F5-A773-F921AF26AFA6}"/>
+    <hyperlink ref="J33" r:id="rId15" xr:uid="{EDD482A1-EFD8-4682-993A-0998255E7F87}"/>
+    <hyperlink ref="J34" r:id="rId16" xr:uid="{165A477D-5757-4B79-825E-3085046C058D}"/>
+    <hyperlink ref="J35" r:id="rId17" xr:uid="{4BD1CA25-0014-4AC4-81E6-196EE9831D92}"/>
+    <hyperlink ref="J36" r:id="rId18" xr:uid="{E571F22F-3E8D-4316-ADC1-836C029608C4}"/>
+    <hyperlink ref="J37" r:id="rId19" xr:uid="{532BFA8E-89DC-4A0F-AA29-58EE90875AF4}"/>
+    <hyperlink ref="J38" r:id="rId20" xr:uid="{0943D9EA-6CA6-42B7-9C2A-22B8BAE37DDF}"/>
+    <hyperlink ref="J39" r:id="rId21" xr:uid="{3C0D53ED-E2C7-41F9-827F-F0B6E92DA239}"/>
+    <hyperlink ref="N3" r:id="rId22" xr:uid="{71282237-4E9F-43A3-B203-993D7DA8D5EE}"/>
+    <hyperlink ref="N4" r:id="rId23" xr:uid="{EE7B5E01-BBE5-4FA8-BA8F-077410423EAB}"/>
+    <hyperlink ref="N5" r:id="rId24" xr:uid="{62B131CB-5689-4FE7-BBD1-588CCCF69815}"/>
+    <hyperlink ref="N6" r:id="rId25" xr:uid="{3E9C6507-7631-4ECF-8812-725F1EF06E45}"/>
+    <hyperlink ref="N7" r:id="rId26" xr:uid="{5372C89C-B55C-4540-9146-937BB41D407D}"/>
+    <hyperlink ref="N8" r:id="rId27" xr:uid="{76740699-6CC1-4131-A9BF-040FE2B6933B}"/>
+    <hyperlink ref="N9" r:id="rId28" xr:uid="{A8AFF25F-79CB-4B65-8548-2C56D635ED53}"/>
+    <hyperlink ref="N10" r:id="rId29" xr:uid="{0B9DEDE4-9E47-4CAF-8769-BE33CFA49D47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>